--- a/apostas.xlsx
+++ b/apostas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>O que é rollover ?</t>
   </si>
@@ -218,6 +218,48 @@
 As odds são essenciais para comparar o potencial retorno de diferentes apostas e escolher as melhores oportunidades.
 elas podem demostrar qual participante é o favorito, com odds mais baixas, ou qual é o azarão com odds mais altas.
 Em resumo, as odds são uma ferramenta fundamental para entender as chances de um evento ocorrer e calcular o potencial retorno de uma aposta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resposta 5 anos </t>
+  </si>
+  <si>
+    <t>Imagine que você ganhou um presente de aniversário, tipo um monte de balas! Mas antes de comer todas, a mamãe diz: "Você precisa brincar com seus amigos algumas vezes antes de comer todas as balas".
+O "rollover" é tipo isso! Quando você coloca dinheiro num jogo online, às vezes ganha um "presente extra" (um bônus). Mas, antes de pegar todo o dinheiro que ganhou de volta (com o presente extra), você precisa "brincar" com ele algumas vezes, ou seja, apostar o valor algumas vezes, aí sim, você pode pegar o dinheiro todo de volta.
+Às vezes, mesmo sem ganhar o presente extra, você ainda precisa "brincar" um pouquinho antes de pegar o dinheiro de volta, mas é bem menos do que se tivesse ganhado o presente extra.</t>
+  </si>
+  <si>
+    <t>Imagine que você ganhou um monte de figurinhas extras! Que legal, né? Mas a tia, que te deu as figurinhas, diz: "Antes de trocar essas figurinhas com seus amigos, você precisa brincar de 'esconde-esconde' 5 vezes!".
+O "rollover" com bônus é mais ou menos isso. Quando você coloca suas figurinhas (seu dinheiro) num jogo online, às vezes ganha um montão de figurinhas extras (o bônus)! Mas, antes de trocar essas figurinhas extras por outras (transformar o bônus em dinheiro de verdade), você precisa "brincar" muitas vezes (apostar o valor do bônus várias vezes).
+A parte boa é que você vai ter um montão de figurinhas para brincar (mais saldo para apostar) e, depois de brincar bastante, pode trocar as figurinhas extras por outras bem legais (transformar o bônus em dinheiro de verdade)!</t>
+  </si>
+  <si>
+    <t>Imagine que você colocou suas moedinhas num cofrinho online para brincar. Às vezes, você não ganha moedinhas extras de ninguém, mas ainda precisa "brincar" um pouquinho antes de pegar suas moedinhas de volta.
+O "rollover" sem bônus é tipo isso. Você colocou suas moedinhas (seu dinheiro) no jogo, mas antes de pegar elas de volta, precisa "brincar" algumas vezes (apostar o valor do seu depósito algumas vezes).
+É mais fácil "brincar" menos vezes, e aí você pega suas moedinhas de volta rapidinho! Mas, como não ganhou moedinhas extras, não vai ter tantas moedinhas para brincar no total.</t>
+  </si>
+  <si>
+    <t>Por que tenho de cadastrar meus documentos ?</t>
+  </si>
+  <si>
+    <t>São normas e procedimentos do site, consta nos termos e condições que você aceita quando se cadastra, além disso para sua própria segurança, pois com a validação temos a certeza de que quem tá sacando é você e não outra pessoa usando seu login e senha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom tarde  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom noite  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olá Bom dia me chamo Betman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olá Bom tarde  me chamo Betman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olá Bom noite  me chamo Betman </t>
   </si>
 </sst>
 </file>
@@ -538,120 +580,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B13:B37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/apostas.xlsx
+++ b/apostas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>O que é rollover ?</t>
   </si>
@@ -218,24 +218,6 @@
 As odds são essenciais para comparar o potencial retorno de diferentes apostas e escolher as melhores oportunidades.
 elas podem demostrar qual participante é o favorito, com odds mais baixas, ou qual é o azarão com odds mais altas.
 Em resumo, as odds são uma ferramenta fundamental para entender as chances de um evento ocorrer e calcular o potencial retorno de uma aposta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resposta 5 anos </t>
-  </si>
-  <si>
-    <t>Imagine que você ganhou um presente de aniversário, tipo um monte de balas! Mas antes de comer todas, a mamãe diz: "Você precisa brincar com seus amigos algumas vezes antes de comer todas as balas".
-O "rollover" é tipo isso! Quando você coloca dinheiro num jogo online, às vezes ganha um "presente extra" (um bônus). Mas, antes de pegar todo o dinheiro que ganhou de volta (com o presente extra), você precisa "brincar" com ele algumas vezes, ou seja, apostar o valor algumas vezes, aí sim, você pode pegar o dinheiro todo de volta.
-Às vezes, mesmo sem ganhar o presente extra, você ainda precisa "brincar" um pouquinho antes de pegar o dinheiro de volta, mas é bem menos do que se tivesse ganhado o presente extra.</t>
-  </si>
-  <si>
-    <t>Imagine que você ganhou um monte de figurinhas extras! Que legal, né? Mas a tia, que te deu as figurinhas, diz: "Antes de trocar essas figurinhas com seus amigos, você precisa brincar de 'esconde-esconde' 5 vezes!".
-O "rollover" com bônus é mais ou menos isso. Quando você coloca suas figurinhas (seu dinheiro) num jogo online, às vezes ganha um montão de figurinhas extras (o bônus)! Mas, antes de trocar essas figurinhas extras por outras (transformar o bônus em dinheiro de verdade), você precisa "brincar" muitas vezes (apostar o valor do bônus várias vezes).
-A parte boa é que você vai ter um montão de figurinhas para brincar (mais saldo para apostar) e, depois de brincar bastante, pode trocar as figurinhas extras por outras bem legais (transformar o bônus em dinheiro de verdade)!</t>
-  </si>
-  <si>
-    <t>Imagine que você colocou suas moedinhas num cofrinho online para brincar. Às vezes, você não ganha moedinhas extras de ninguém, mas ainda precisa "brincar" um pouquinho antes de pegar suas moedinhas de volta.
-O "rollover" sem bônus é tipo isso. Você colocou suas moedinhas (seu dinheiro) no jogo, mas antes de pegar elas de volta, precisa "brincar" algumas vezes (apostar o valor do seu depósito algumas vezes).
-É mais fácil "brincar" menos vezes, e aí você pega suas moedinhas de volta rapidinho! Mas, como não ganhou moedinhas extras, não vai ter tantas moedinhas para brincar no total.</t>
   </si>
   <si>
     <t>Por que tenho de cadastrar meus documentos ?</t>
@@ -580,89 +562,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -670,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -678,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -686,7 +655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -694,7 +663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -702,7 +671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -710,7 +679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -718,7 +687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -726,7 +695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -736,13 +705,14 @@
     </row>
     <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/apostas.xlsx
+++ b/apostas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>O que é rollover ?</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Como fazer apostas em futebol?</t>
-  </si>
-  <si>
-    <t>Como fazer apostas em box?</t>
   </si>
   <si>
     <t>Como fazer apostas em natação?</t>
@@ -235,13 +232,106 @@
     <t xml:space="preserve">Bom noite  </t>
   </si>
   <si>
-    <t xml:space="preserve">Olá Bom dia me chamo Betman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olá Bom tarde  me chamo Betman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olá Bom noite  me chamo Betman </t>
+    <t>Como fazer apostas em boxe?</t>
+  </si>
+  <si>
+    <t>Por que tenho de validar minha conta ?</t>
+  </si>
+  <si>
+    <t>Quais os banco são aceitos para depósito ?</t>
+  </si>
+  <si>
+    <t>Pode me indicar jogos de roleta ?</t>
+  </si>
+  <si>
+    <t>Claro! Temos estes o Mega Rollete https://www.betmotion.com/br/game/mega-roulette-7265  ,Ruleta Espanhola https://www.betmotion.com/br/game/ruleta-espanola-14288 ,Lucky   Roullete https://cms.centersvc.com/media/images/games/13888.jpg?v=1</t>
+  </si>
+  <si>
+    <t>Por motivo de segurança, somente com a validação saberemos que é você que está tentando sacar, ou outra pessoa poderia sacar usando seu login e senha</t>
+  </si>
+  <si>
+    <t>itaú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estamos em processo de regulamentação
+</t>
+  </si>
+  <si>
+    <t>Vocês são regulamentados ?</t>
+  </si>
+  <si>
+    <t>Você pode me dar um bonus ?</t>
+  </si>
+  <si>
+    <t>Hummm, talvez sim ,me informe seu email</t>
+  </si>
+  <si>
+    <t>Você pode me dar um prêmio ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claro basta apostar e com certeza tendo sorte vocêvai ganhar </t>
+  </si>
+  <si>
+    <t>Desde quando vocês atuam no Brasil ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estamos ativos desde 2008!
+</t>
+  </si>
+  <si>
+    <t>Qual a idade de vocês ?</t>
+  </si>
+  <si>
+    <t>Temos 17 anos , já estamos bem grandinho!</t>
+  </si>
+  <si>
+    <t>Qual a documentação preciso para validar minha conta ?</t>
+  </si>
+  <si>
+    <t>RG, CNH ou RNE/RNM (registro Nacional de estrangeiros)
+Lembre-se que ter que ser legivel hein !</t>
+  </si>
+  <si>
+    <t>Por que eu não ganho ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Entendo perfeitamente como se sente! É frustrante quando a sorte não está do nosso lado. Mas olha, aqui na Betmotion, todos os nossos jogos são totalmente aleatórios, como um sorteio mesmo. A gente não tem como influenciar em nada, nem nos ganhos nem nas perdas. É tudo questão de probabilidade e sorte.
+Uma dica que sempre damos é: se perceber que a maré não está boa em um jogo, experimente outros! Temos tantas opções divertidas por aqui, quem sabe você não encontra um novo favorito e a sorte muda de lado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha conta ainda não foi validada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entendo, olha me informe o seu e-mail e iremos verificar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não recebi meu saque </t>
+  </si>
+  <si>
+    <t>É um programa de fidelidade para todos os clientes, chamado "Clube de Fidelidade".
+Contém 7 níveis. Você pode ganhar pontos com suas apostas nas diferentes verticais, e com estes pontos
+ter acesso aos bônus que são oferecidos dentro deste programa.</t>
+  </si>
+  <si>
+    <t>O que é o programa de fidelidade ?</t>
+  </si>
+  <si>
+    <t>Vocês tem programa de fidelidade ?</t>
+  </si>
+  <si>
+    <t>Vocês tem programa de afiliados ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah entendo, o prazo para pagamento é de até 3 dias úteis sem contar o dia que solicitou
+</t>
+  </si>
+  <si>
+    <t>Olá meu nome é Betman o seu herói e estou aqui para ajuda-lo !</t>
+  </si>
+  <si>
+    <t>Claro temos sim !!!!!Olha segue os canais para contato https://partnersonly.com/pt-br/  Email: partners@partnersonly.com
+WhatsApp: +55 11 9.5066-2415  a nosso horário de atendimento é de segunda a sexta-feira, das 9h às 18h.</t>
   </si>
 </sst>
 </file>
@@ -562,16 +652,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -585,29 +675,29 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -615,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -649,7 +739,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -657,10 +747,10 @@
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -668,47 +758,167 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/apostas.xlsx
+++ b/apostas.xlsx
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/apostas.xlsx
+++ b/apostas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>O que é rollover ?</t>
   </si>
@@ -257,9 +257,6 @@
 </t>
   </si>
   <si>
-    <t>Vocês são regulamentados ?</t>
-  </si>
-  <si>
     <t>Você pode me dar um bonus ?</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   <si>
     <t>RG, CNH ou RNE/RNM (registro Nacional de estrangeiros)
 Lembre-se que ter que ser legivel hein !</t>
-  </si>
-  <si>
-    <t>Por que eu não ganho ?</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -300,13 +294,7 @@
 Uma dica que sempre damos é: se perceber que a maré não está boa em um jogo, experimente outros! Temos tantas opções divertidas por aqui, quem sabe você não encontra um novo favorito e a sorte muda de lado?</t>
   </si>
   <si>
-    <t xml:space="preserve">Minha conta ainda não foi validada </t>
-  </si>
-  <si>
     <t xml:space="preserve">Entendo, olha me informe o seu e-mail e iremos verificar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não recebi meu saque </t>
   </si>
   <si>
     <t>É um programa de fidelidade para todos os clientes, chamado "Clube de Fidelidade".
@@ -314,24 +302,42 @@
 ter acesso aos bônus que são oferecidos dentro deste programa.</t>
   </si>
   <si>
-    <t>O que é o programa de fidelidade ?</t>
-  </si>
-  <si>
-    <t>Vocês tem programa de fidelidade ?</t>
-  </si>
-  <si>
-    <t>Vocês tem programa de afiliados ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ah entendo, o prazo para pagamento é de até 3 dias úteis sem contar o dia que solicitou
 </t>
   </si>
   <si>
-    <t>Olá meu nome é Betman o seu herói e estou aqui para ajuda-lo !</t>
-  </si>
-  <si>
     <t>Claro temos sim !!!!!Olha segue os canais para contato https://partnersonly.com/pt-br/  Email: partners@partnersonly.com
 WhatsApp: +55 11 9.5066-2415  a nosso horário de atendimento é de segunda a sexta-feira, das 9h às 18h.</t>
+  </si>
+  <si>
+    <t>Vocês são regulamentados ?A empresa é regulamentada?</t>
+  </si>
+  <si>
+    <t>Por que eu não ganho ?Não ganho,nunca ganho</t>
+  </si>
+  <si>
+    <t>Olá meu nome é superbet o seu herói e estou aqui para ajuda-lo !</t>
+  </si>
+  <si>
+    <t>Oi você podeme ajudar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero falar com um atendente,human,agente,analista,operador </t>
+  </si>
+  <si>
+    <t>Claro !Ele tem um superpoder que é atende-lo bem !Elejá esta vindo ,enquanto isso aproveite nossos jogos!</t>
+  </si>
+  <si>
+    <t>Vocês tem programa de fidelidade ?fidelidade</t>
+  </si>
+  <si>
+    <t>Vocês tem programa de afiliados ?afiliados</t>
+  </si>
+  <si>
+    <t>Não recebi meu saque ,porque?</t>
+  </si>
+  <si>
+    <t>Minha conta ainda não foi validada ,validação</t>
   </si>
 </sst>
 </file>
@@ -652,16 +658,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="2" max="2" width="102.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -675,250 +681,255 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/apostas.xlsx
+++ b/apostas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>O que é rollover ?</t>
   </si>
@@ -334,20 +334,64 @@
     <t>Vocês tem programa de afiliados ?afiliados</t>
   </si>
   <si>
-    <t>Não recebi meu saque ,porque?</t>
-  </si>
-  <si>
     <t>Minha conta ainda não foi validada ,validação</t>
+  </si>
+  <si>
+    <t>Quais são minhas chances de ganhar ?</t>
+  </si>
+  <si>
+    <t>Vocês tem bingo ?Bingo online</t>
+  </si>
+  <si>
+    <t>qual o resultado da quarta de giros ?</t>
+  </si>
+  <si>
+    <t>Suas chances são enormes e com muita sorte torcemos por você!</t>
+  </si>
+  <si>
+    <t>Sim temos sim, segue o link :https://betmotion.com/br/bingo-online/bingo-cartelas-online</t>
+  </si>
+  <si>
+    <t>o resultado foi a,b,c e d</t>
+  </si>
+  <si>
+    <t>qual o e-mail para contato ?</t>
+  </si>
+  <si>
+    <t>suporte@betmotion.com</t>
+  </si>
+  <si>
+    <t>qual o whatsapp para contato ?</t>
+  </si>
+  <si>
+    <t>11 91427-1299</t>
+  </si>
+  <si>
+    <t>como mantenho contato ?</t>
+  </si>
+  <si>
+    <t>whatsapp 11 91427-1299 e email suporte@betmotion.com</t>
+  </si>
+  <si>
+    <t>Não recebi meu saque ,porque?atrasado, saque atrasado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,16 +414,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -658,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -748,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -772,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -780,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -804,7 +853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -812,7 +861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -820,7 +869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -836,7 +885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -892,7 +941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -902,21 +951,21 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -924,7 +973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -932,8 +981,59 @@
         <v>52</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/apostas.xlsx
+++ b/apostas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>O que é rollover ?</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>Não recebi meu saque ,porque?atrasado, saque atrasado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me dá uma cortesia ?cortesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poxa quem sabe você ganha ,advinha quem são os 5 ganhadores de bingo de dezembro de 2024 </t>
   </si>
 </sst>
 </file>
@@ -707,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1035,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B37" r:id="rId1"/>
